--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13350" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Test Case</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>clickSignIn</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>clickLink</t>
+  </si>
+  <si>
+    <t>enterTitle</t>
+  </si>
+  <si>
+    <t>searchData</t>
   </si>
 </sst>
 </file>
@@ -414,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +537,48 @@
       </c>
       <c r="D6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\KeywordDriven\KeywordDrivenFramework\Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13350" windowHeight="6600"/>
   </bookViews>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -197,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +452,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -12,16 +12,14 @@
     <workbookView xWindow="0" yWindow="2505" windowWidth="13350" windowHeight="6600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Test Case</t>
   </si>
@@ -108,16 +106,63 @@
   </si>
   <si>
     <t>searchData</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>name=username</t>
+  </si>
+  <si>
+    <t>name=password</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id=\"app\"]/div[1]/div/div[1]/div/div[2]/div[2]/form/div[3]/button</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id=\"app\"]/div[1]/div[1]/aside/nav/div[2]/ul/li[9]/a</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div/div[1]</t>
+  </si>
+  <si>
+    <t>xpath=//*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,13 +185,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,21 +497,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -474,10 +524,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -488,10 +544,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,10 +564,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,10 +584,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -530,10 +604,16 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -544,10 +624,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -558,10 +644,16 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -572,10 +664,16 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -586,34 +684,19 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -117,24 +117,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>name=username</t>
-  </si>
-  <si>
-    <t>name=password</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id=\"app\"]/div[1]/div/div[1]/div/div[2]/div[2]/form/div[3]/button</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id=\"app\"]/div[1]/div[1]/aside/nav/div[2]/ul/li[9]/a</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div/div[1]</t>
-  </si>
-  <si>
-    <t>xpath=//*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[2]/button[2]</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -145,6 +127,24 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>name :username</t>
+  </si>
+  <si>
+    <t>name :password</t>
+  </si>
+  <si>
+    <t>xpath ://*[@id="app"]/div[1]/div/div[1]/div/div[2]/div[2]/form/div[3]/button</t>
+  </si>
+  <si>
+    <t>xpath ://*[@id=\"app\"]/div[1]/div[1]/aside/nav/div[2]/ul/li[9]/a</t>
+  </si>
+  <si>
+    <t>xpath ://*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div/div[1]</t>
+  </si>
+  <si>
+    <t>xpath ://*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[2]/button[2]</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="78.28515625" customWidth="1"/>
+    <col min="4" max="4" width="102.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
   </cols>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>

--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="102.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\KeywordDriven\KeywordDrivenFramework\Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13350" windowHeight="6600"/>
   </bookViews>
@@ -150,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
+++ b/KeywordDrivenFramework/Sheets/Keyworddriven.xlsx
@@ -117,9 +117,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
   </si>
   <si>
@@ -135,16 +132,19 @@
     <t>name :password</t>
   </si>
   <si>
-    <t>xpath ://*[@id="app"]/div[1]/div/div[1]/div/div[2]/div[2]/form/div[3]/button</t>
-  </si>
-  <si>
-    <t>xpath ://*[@id=\"app\"]/div[1]/div[1]/aside/nav/div[2]/ul/li[9]/a</t>
-  </si>
-  <si>
-    <t>xpath ://*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div/div[1]</t>
-  </si>
-  <si>
-    <t>xpath ://*[@id=\"app\"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[2]/button[2]</t>
+    <t>xpath : //*[@id="app"]/div[1]/div[1]/aside/nav/div[2]/ul/li[9]/a</t>
+  </si>
+  <si>
+    <t>xpath : //*[@id="app"]/div[1]/div/div[1]/div/div[2]/div[2]/form/div[3]/button</t>
+  </si>
+  <si>
+    <t>xpath : //*[@id="app"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div/div[1]</t>
+  </si>
+  <si>
+    <t>xpath : //*[@id="app"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
